--- a/excel/等级表_Level.xlsx
+++ b/excel/等级表_Level.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>编号</t>
   </si>
@@ -38,6 +38,9 @@
   <si>
     <t>int</t>
   </si>
+  <si>
+    <t>long</t>
+  </si>
 </sst>
 </file>
 
@@ -49,14 +52,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,48 +510,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,97 +564,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1013,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1052,10 +1048,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/excel/等级表_Level.xlsx
+++ b/excel/等级表_Level.xlsx
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
